--- a/data/input/fix_categoria.xlsx
+++ b/data/input/fix_categoria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit-my.sharepoint.com/personal/jmunozm1_eafit_edu_co/Documents/Projects/2021_BID_PulsoSocial/pulsosocialcolombia/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit-my.sharepoint.com/personal/jmunozm1_eafit_edu_co/Documents/Projects/2023_BID_PulsoSocial/07_RPulsosocial/PulsoSocialColombia/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="11_52041CD48F79A8D366075C52F37BD272BAC6B3AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E2BC0B4-279E-7B41-90B0-09F531CA4AD3}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="11_52041CD48F79A8D366075C52F37BD272BAC6B3AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02787ECB-070C-4138-BE81-A210402ABF4E}"/>
   <bookViews>
-    <workbookView xWindow="-37940" yWindow="2360" windowWidth="31740" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="304">
   <si>
     <t>id_nivel</t>
   </si>
@@ -1007,9 +1011,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1047,9 +1051,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1082,26 +1086,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1134,26 +1121,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1327,24 +1297,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="G155" sqref="G155:H156"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="83" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1370,7 +1340,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -1399,7 +1369,7 @@
         <v>Enfermedades Infecciosas Intestinales</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -1428,7 +1398,7 @@
         <v>Tuberculosis, Inclusive Secuelas</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -1457,7 +1427,7 @@
         <v>Ciertas Enf. Transmitidas Por Vectores Y Rabia</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -1486,7 +1456,7 @@
         <v>Ciertas Enf. Prevenibles Por Vacuna</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -1515,7 +1485,7 @@
         <v>Meningitis</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -1544,7 +1514,7 @@
         <v>Septicemia</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -1573,7 +1543,7 @@
         <v>Infecc. Con Modo De Transm. Predom./. Sexual</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -1602,7 +1572,7 @@
         <v>Enfermedad Por El Vih/Sida</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -1631,7 +1601,7 @@
         <v>Infecciones Respiratorias Agudas</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -1660,7 +1630,7 @@
         <v>Otrasenf. Infecciosas Y Parasitarias</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -1689,7 +1659,7 @@
         <v>Tumor Maligno Del Estomago</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -1718,7 +1688,7 @@
         <v>Tumor Maligno Del Colon</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -1747,7 +1717,7 @@
         <v>Tumor M. Org.Digestivos Y Peritoneo, Excl.Estom.Y Colon</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -1776,7 +1746,7 @@
         <v>Tumor Maligno Higado Y Vias Biliares</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -1805,7 +1775,7 @@
         <v>Tumor Maligno Del Pancreas</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -1834,7 +1804,7 @@
         <v>T. M. De Traquea, Bronquios Y Pulmon</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -1863,7 +1833,7 @@
         <v>Tumor M.Org. Respirat. E Intrat., Excl.Traquea, Bronquios Y Pulmon</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -1892,7 +1862,7 @@
         <v>Tumor Maligno De La Mama</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -1921,7 +1891,7 @@
         <v>T. Maligno Del Utero</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -1950,7 +1920,7 @@
         <v>T. Maligno De La Prostata</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -1979,7 +1949,7 @@
         <v>T. Maligno Otros Organos Genitourinarios</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -2008,7 +1978,7 @@
         <v>T. Maligno Tejido Linfatico, Org. Hematopoy. Y Tejidos Afines</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -2037,7 +2007,7 @@
         <v>Residuo De Tumores Malignos</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -2066,7 +2036,7 @@
         <v>Carcinoma In-Situ, T. Benignos Y De Comportam.Incierto O Descon.</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -2095,7 +2065,7 @@
         <v>Fiebre Reumatica Aguda Y Enf. Cardiacas Reum. Cronicas</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -2124,7 +2094,7 @@
         <v>Enfermedades Hipertensivas</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -2153,7 +2123,7 @@
         <v>Enfermedades Isquemicas Del Corazon</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -2182,7 +2152,7 @@
         <v>Enf. Cardiopulmonar, De La Circ. Pulm. Y Otras Enf. Corazon</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -2211,7 +2181,7 @@
         <v>Paro Cardiaco</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -2240,7 +2210,7 @@
         <v>Insuficiencia Cardiaca</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -2269,7 +2239,7 @@
         <v>Enfermedades Cerebrovasculares</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -2298,7 +2268,7 @@
         <v>Aterosclerosis</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -2327,7 +2297,7 @@
         <v>Resto Enf. Del Sistema Circulatorio</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -2356,7 +2326,7 @@
         <v>Feto Y Recien Nacido Afectados Por Ciertas Afecc. Maternas</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -2385,7 +2355,7 @@
         <v>Feto Y Recien N. Afectados Por Compl. Obst. Y Traum. Nacimiento</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -2414,7 +2384,7 @@
         <v>Retardo Crecim.Fetal, Desnutr. Fetal., Bajo P./ Nacer, Gest.Corta</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -2443,7 +2413,7 @@
         <v>Trast. Respiratorios Especificos Del Periodo Perinatal</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -2472,7 +2442,7 @@
         <v>Sepsis Bacteriana Del Recien Nacido</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -2501,7 +2471,7 @@
         <v>Enf. Hemolitica Del Feto Y Del Recien N. Y Kernicterus</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -2530,7 +2500,7 @@
         <v>Otras Afecc. Originadas En Periodo Perinatal</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -2559,7 +2529,7 @@
         <v>Acc. Transporte Terrestre, Inclusive Secuelas</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -2588,7 +2558,7 @@
         <v>Otros Acc. Transporte Y Los No Esp., Inclusive Secuelas</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -2617,7 +2587,7 @@
         <v>Caidas</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -2646,7 +2616,7 @@
         <v>Acc. Causados Por Maquinas Y Por Instr. Cortantes/Punzantes</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -2675,7 +2645,7 @@
         <v>Acc. Causados Por Disparo De Armas De Fuego</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -2704,7 +2674,7 @@
         <v>Ahogamiento Y Sumersion Accidentales</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -2733,7 +2703,7 @@
         <v>Exposicion Al Humo, Fuego Y Llamas</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -2762,7 +2732,7 @@
         <v>Envenenamiento. Acc. Por, Y Exposicion A Sustanc.Nocivas</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -2791,7 +2761,7 @@
         <v>Complicac.De La Atenc. Medica Y Quirurg., Inclusive Secuelas</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -2820,7 +2790,7 @@
         <v>Otros Accidentes, Inclusive Secuelas</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -2849,7 +2819,7 @@
         <v>Lesiones Autoinfligidas Intenc.(Suicidios), Incl. Secuelas</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -2878,7 +2848,7 @@
         <v>Agresiones (Homicidios), Inclusive Secuelas</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -2907,7 +2877,7 @@
         <v>Intervencion Legal Y Operac. De Guerra, Incl. Secuelas</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -2936,7 +2906,7 @@
         <v>Eventos De Intencion No Determinada, Incl. Secuelas</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>94</v>
       </c>
@@ -2965,7 +2935,7 @@
         <v>Diabetes Mellitus</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -2994,7 +2964,7 @@
         <v>Deficiencias Nutricionales Y Anemias Nutricionales</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>94</v>
       </c>
@@ -3023,7 +2993,7 @@
         <v>Trastornos Mentales Y Del Comportamiento</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -3052,7 +3022,7 @@
         <v>Enf. Sistema Nervioso, Excepto Meningitis</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -3081,7 +3051,7 @@
         <v>Enf. Cronicas Vias Repiratorias Inferiores</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -3110,7 +3080,7 @@
         <v>Otras Enf. De Las Vias Respiratorias Superiores</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -3139,7 +3109,7 @@
         <v>Enf. Del Pulmon Debidas A Agentes Externos</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -3168,7 +3138,7 @@
         <v>Otras Enfermedades Respiratorias</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -3197,7 +3167,7 @@
         <v>Apendicitis, Hernia Cavidad Abdominal Y Obstr. Intestinal</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>94</v>
       </c>
@@ -3226,7 +3196,7 @@
         <v>Ciertas Enf. Cronicas Del Higado Y Cirrosis</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>94</v>
       </c>
@@ -3255,7 +3225,7 @@
         <v>Otras Enf. Sistema Disgestivo</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>94</v>
       </c>
@@ -3272,11 +3242,11 @@
         <v>227</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F130" si="3">D67</f>
+        <f t="shared" ref="F67:F134" si="3">D67</f>
         <v>causa</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:H78" si="4">E67</f>
+        <f t="shared" ref="G67:G73" si="4">E67</f>
         <v>612</v>
       </c>
       <c r="H67" t="str">
@@ -3284,7 +3254,7 @@
         <v>Enfermedades Sistema Urinario</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>94</v>
       </c>
@@ -3313,7 +3283,7 @@
         <v>Hiperplasia De La Prostata</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -3342,7 +3312,7 @@
         <v>Embarazo, Parto Y Puerperio</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -3371,7 +3341,7 @@
         <v>Malformaciones Congen., Deformid.Y Anomalias Cromosomicas</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -3400,7 +3370,7 @@
         <v>Residuo</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>94</v>
       </c>
@@ -3429,7 +3399,7 @@
         <v>Sintomas, Signos Y Afecciones Mal Definidas</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -3458,7 +3428,7 @@
         <v>Tumores In Situ, Beningnos Y Los De Comportamiento Incierto O Desconocido</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>240</v>
       </c>
@@ -3483,7 +3453,7 @@
         <v>Cancer</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>240</v>
       </c>
@@ -3508,7 +3478,7 @@
         <v>Cardiovascular</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>240</v>
       </c>
@@ -3533,7 +3503,7 @@
         <v>Otros</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>240</v>
       </c>
@@ -3558,7 +3528,7 @@
         <v>Respiratorias</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>240</v>
       </c>
@@ -3583,7 +3553,7 @@
         <v>Diabetes</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>22</v>
       </c>
@@ -3608,7 +3578,7 @@
         <v>Extranjeros</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -3633,7 +3603,7 @@
         <v>Colombianos</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -3660,7 +3630,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -3687,7 +3657,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -3714,7 +3684,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -3741,7 +3711,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -3765,7 +3735,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -3789,7 +3759,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -3813,7 +3783,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3837,7 +3807,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>250</v>
       </c>
@@ -3864,7 +3834,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>250</v>
       </c>
@@ -3891,176 +3861,172 @@
         <v>269</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="D91" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="3"/>
-        <v>etnia</v>
+        <f t="shared" ref="F91:F94" si="7">D91</f>
+        <v>edad</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="C92" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="D92" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="F92" t="str">
-        <f t="shared" si="3"/>
-        <v>etnia</v>
+        <f t="shared" si="7"/>
+        <v>edad</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D93" t="s">
-        <v>92</v>
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
+        <v>248</v>
       </c>
       <c r="F93" t="str">
-        <f t="shared" si="3"/>
-        <v>etnia</v>
+        <f t="shared" si="7"/>
+        <v>edad</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="F94" t="str">
-        <f t="shared" si="3"/>
-        <v>fuente</v>
+        <f t="shared" si="7"/>
+        <v>edad</v>
       </c>
       <c r="G94">
+        <v>15</v>
+      </c>
+      <c r="H94" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" t="s">
+        <v>91</v>
+      </c>
+      <c r="D95" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="3"/>
+        <v>etnia</v>
+      </c>
+      <c r="G95">
         <v>1</v>
       </c>
-      <c r="H94" t="str">
-        <f>PROPER(SUBSTITUTE(E94,"_"," "))</f>
-        <v>Acueducto Publico</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>26</v>
-      </c>
-      <c r="C95" t="s">
-        <v>27</v>
-      </c>
-      <c r="D95" t="s">
-        <v>28</v>
-      </c>
-      <c r="E95" t="s">
-        <v>30</v>
-      </c>
-      <c r="F95" t="str">
-        <f t="shared" si="3"/>
-        <v>fuente</v>
-      </c>
-      <c r="G95">
+      <c r="H95" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96" t="s">
+        <v>92</v>
+      </c>
+      <c r="E96" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="3"/>
+        <v>etnia</v>
+      </c>
+      <c r="G96">
         <v>2</v>
       </c>
-      <c r="H95" t="str">
-        <f>PROPER(SUBSTITUTE(E95,"_"," "))</f>
-        <v>Acueducto Comunal</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>26</v>
-      </c>
-      <c r="C96" t="s">
-        <v>27</v>
-      </c>
-      <c r="D96" t="s">
-        <v>28</v>
-      </c>
-      <c r="E96" t="s">
-        <v>31</v>
-      </c>
-      <c r="F96" t="str">
-        <f t="shared" si="3"/>
-        <v>fuente</v>
-      </c>
-      <c r="G96">
-        <v>3</v>
-      </c>
-      <c r="H96" t="str">
-        <f t="shared" ref="H96:H113" si="7">PROPER(SUBSTITUTE(E96,"_"," "))</f>
-        <v>Pozo Bomba</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H96" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>28</v>
-      </c>
-      <c r="E97" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="3"/>
-        <v>fuente</v>
+        <v>etnia</v>
       </c>
       <c r="G97">
-        <v>4</v>
-      </c>
-      <c r="H97" t="str">
-        <f t="shared" si="7"/>
-        <v>Pozo Nobomba</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -4071,21 +4037,21 @@
         <v>28</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="3"/>
         <v>fuente</v>
       </c>
       <c r="G98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H98" t="str">
-        <f t="shared" si="7"/>
-        <v>Agua Lluvia</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+        <f>PROPER(SUBSTITUTE(E98,"_"," "))</f>
+        <v>Acueducto Publico</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>26</v>
       </c>
@@ -4096,21 +4062,21 @@
         <v>28</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="3"/>
         <v>fuente</v>
       </c>
       <c r="G99">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" si="7"/>
-        <v>Rio Quebrada</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <f>PROPER(SUBSTITUTE(E99,"_"," "))</f>
+        <v>Acueducto Comunal</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -4121,21 +4087,21 @@
         <v>28</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="3"/>
         <v>fuente</v>
       </c>
       <c r="G100">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="7"/>
-        <v>Agua Botella Bolsa</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H100:H107" si="8">PROPER(SUBSTITUTE(E100,"_"," "))</f>
+        <v>Pozo Bomba</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -4146,21 +4112,21 @@
         <v>28</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="3"/>
         <v>fuente</v>
       </c>
       <c r="G101">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="7"/>
-        <v>Pila Publica</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>Pozo Nobomba</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>26</v>
       </c>
@@ -4171,21 +4137,21 @@
         <v>28</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="3"/>
         <v>fuente</v>
       </c>
       <c r="G102">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="7"/>
-        <v>Carrotanque</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>Agua Lluvia</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>26</v>
       </c>
@@ -4196,117 +4162,121 @@
         <v>28</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="3"/>
         <v>fuente</v>
       </c>
       <c r="G103">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H103" t="str">
-        <f t="shared" si="7"/>
-        <v>Aguatero</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>Rio Quebrada</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C104" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D104" t="s">
         <v>28</v>
       </c>
       <c r="E104" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="3"/>
         <v>fuente</v>
       </c>
       <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="8"/>
+        <v>Agua Botella Bolsa</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C105" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D105" t="s">
         <v>28</v>
       </c>
       <c r="E105" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="3"/>
         <v>fuente</v>
       </c>
       <c r="G105">
-        <v>2</v>
-      </c>
-      <c r="H105" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="8"/>
+        <v>Pila Publica</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C106" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D106" t="s">
         <v>28</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="3"/>
         <v>fuente</v>
       </c>
       <c r="G106">
-        <v>3</v>
-      </c>
-      <c r="H106" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="8"/>
+        <v>Carrotanque</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C107" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D107" t="s">
         <v>28</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="3"/>
         <v>fuente</v>
       </c>
       <c r="G107">
-        <v>4</v>
-      </c>
-      <c r="H107" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="8"/>
+        <v>Aguatero</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>39</v>
       </c>
@@ -4317,20 +4287,20 @@
         <v>28</v>
       </c>
       <c r="E108" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="3"/>
         <v>fuente</v>
       </c>
       <c r="G108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>39</v>
       </c>
@@ -4341,20 +4311,20 @@
         <v>28</v>
       </c>
       <c r="E109" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="3"/>
         <v>fuente</v>
       </c>
       <c r="G109">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H109" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>39</v>
       </c>
@@ -4365,20 +4335,20 @@
         <v>28</v>
       </c>
       <c r="E110" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="3"/>
         <v>fuente</v>
       </c>
       <c r="G110">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H110" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>39</v>
       </c>
@@ -4389,20 +4359,20 @@
         <v>28</v>
       </c>
       <c r="E111" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="3"/>
         <v>fuente</v>
       </c>
       <c r="G111">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H111" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>39</v>
       </c>
@@ -4413,20 +4383,20 @@
         <v>28</v>
       </c>
       <c r="E112" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="3"/>
         <v>fuente</v>
       </c>
       <c r="G112">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H112" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>39</v>
       </c>
@@ -4437,296 +4407,292 @@
         <v>28</v>
       </c>
       <c r="E113" t="s">
+        <v>46</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" si="3"/>
+        <v>fuente</v>
+      </c>
+      <c r="G113">
+        <v>6</v>
+      </c>
+      <c r="H113" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" t="s">
+        <v>40</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" t="s">
+        <v>47</v>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="3"/>
+        <v>fuente</v>
+      </c>
+      <c r="G114">
+        <v>7</v>
+      </c>
+      <c r="H114" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>39</v>
+      </c>
+      <c r="C115" t="s">
+        <v>40</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" t="s">
+        <v>48</v>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" si="3"/>
+        <v>fuente</v>
+      </c>
+      <c r="G115">
+        <v>8</v>
+      </c>
+      <c r="H115" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>39</v>
+      </c>
+      <c r="C116" t="s">
+        <v>40</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" t="s">
+        <v>49</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="3"/>
+        <v>fuente</v>
+      </c>
+      <c r="G116">
+        <v>9</v>
+      </c>
+      <c r="H116" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>39</v>
+      </c>
+      <c r="C117" t="s">
+        <v>40</v>
+      </c>
+      <c r="D117" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" t="s">
         <v>50</v>
       </c>
-      <c r="F113" t="str">
+      <c r="F117" t="str">
         <f t="shared" si="3"/>
         <v>fuente</v>
       </c>
-      <c r="G113">
+      <c r="G117">
         <v>10</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H117" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>18</v>
       </c>
-      <c r="C114" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
         <v>19</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E118" t="s">
         <v>20</v>
       </c>
-      <c r="F114" t="str">
+      <c r="F118" t="str">
         <f t="shared" si="3"/>
         <v>gen</v>
       </c>
-      <c r="G114">
+      <c r="G118">
         <v>1</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H118" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>18</v>
       </c>
-      <c r="C115" t="s">
-        <v>5</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
         <v>19</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E119" t="s">
         <v>21</v>
       </c>
-      <c r="F115" t="str">
+      <c r="F119" t="str">
         <f t="shared" si="3"/>
         <v>gen</v>
       </c>
-      <c r="G115">
+      <c r="G119">
         <v>2</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H119" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>254</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C120" t="s">
         <v>27</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D120" t="s">
         <v>255</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E120" t="s">
         <v>256</v>
       </c>
-      <c r="F116" t="str">
+      <c r="F120" t="str">
         <f t="shared" si="3"/>
         <v>grupo</v>
       </c>
-      <c r="G116">
+      <c r="G120">
         <v>1</v>
       </c>
-      <c r="H116" t="str">
-        <f>PROPER(E116)</f>
+      <c r="H120" t="str">
+        <f>PROPER(E120)</f>
         <v>Adultez</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>254</v>
-      </c>
-      <c r="C117" t="s">
-        <v>27</v>
-      </c>
-      <c r="D117" t="s">
-        <v>255</v>
-      </c>
-      <c r="E117" t="s">
-        <v>257</v>
-      </c>
-      <c r="F117" t="str">
-        <f t="shared" si="3"/>
-        <v>grupo</v>
-      </c>
-      <c r="G117">
-        <v>2</v>
-      </c>
-      <c r="H117" t="str">
-        <f t="shared" ref="H117:H119" si="8">PROPER(E117)</f>
-        <v>Infancia</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>254</v>
-      </c>
-      <c r="C118" t="s">
-        <v>27</v>
-      </c>
-      <c r="D118" t="s">
-        <v>255</v>
-      </c>
-      <c r="E118" t="s">
-        <v>258</v>
-      </c>
-      <c r="F118" t="str">
-        <f t="shared" si="3"/>
-        <v>grupo</v>
-      </c>
-      <c r="G118">
-        <v>3</v>
-      </c>
-      <c r="H118" t="str">
-        <f t="shared" si="8"/>
-        <v>Juventud</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>254</v>
-      </c>
-      <c r="C119" t="s">
-        <v>27</v>
-      </c>
-      <c r="D119" t="s">
-        <v>255</v>
-      </c>
-      <c r="E119" t="s">
-        <v>259</v>
-      </c>
-      <c r="F119" t="str">
-        <f t="shared" si="3"/>
-        <v>grupo</v>
-      </c>
-      <c r="G119">
-        <v>4</v>
-      </c>
-      <c r="H119" t="str">
-        <f t="shared" si="8"/>
-        <v>Vejez</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" t="s">
-        <v>6</v>
-      </c>
-      <c r="E120" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" t="str">
-        <f t="shared" si="3"/>
-        <v>ninguno</v>
-      </c>
-      <c r="G120" t="s">
-        <v>6</v>
-      </c>
-      <c r="H120" t="s">
-        <v>7</v>
-      </c>
-      <c r="I120" t="str">
-        <f t="shared" ref="I120" si="9">G120</f>
-        <v>ninguno</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>51</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
       </c>
       <c r="D121" t="s">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="E121" t="s">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="3"/>
-        <v>tipo</v>
+        <v>grupo</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H121" t="str">
-        <f>PROPER(SUBSTITUTE(E121,"par_","Paredes -  "))</f>
-        <v>Paredes -  Ladrillo</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H121:H123" si="9">PROPER(E121)</f>
+        <v>Infancia</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
       </c>
       <c r="D122" t="s">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="E122" t="s">
-        <v>54</v>
+        <v>258</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="3"/>
-        <v>tipo</v>
+        <v>grupo</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H122" t="str">
-        <f t="shared" ref="H122:H129" si="10">PROPER(SUBSTITUTE(E122,"par_","Paredes -  "))</f>
-        <v>Paredes -  Bahareque_Norevo</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>Juventud</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
       </c>
       <c r="D123" t="s">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="E123" t="s">
-        <v>55</v>
+        <v>259</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="3"/>
-        <v>tipo</v>
+        <v>grupo</v>
       </c>
       <c r="G123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H123" t="str">
-        <f t="shared" si="10"/>
-        <v>Paredes -  Bahareque_Revo</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>Vejez</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="E124" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="3"/>
-        <v>tipo</v>
-      </c>
-      <c r="G124">
-        <v>4</v>
-      </c>
-      <c r="H124" t="str">
-        <f t="shared" si="10"/>
-        <v>Paredes -  Guadua</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+        <v>ninguno</v>
+      </c>
+      <c r="G124" t="s">
+        <v>6</v>
+      </c>
+      <c r="H124" t="s">
+        <v>7</v>
+      </c>
+      <c r="I124" t="str">
+        <f t="shared" ref="I124" si="10">G124</f>
+        <v>ninguno</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>51</v>
       </c>
@@ -4737,21 +4703,21 @@
         <v>52</v>
       </c>
       <c r="E125" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="3"/>
         <v>tipo</v>
       </c>
       <c r="G125">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H125" t="str">
-        <f t="shared" si="10"/>
-        <v>Paredes -  Latas_Desh</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+        <f>PROPER(SUBSTITUTE(E125,"par_","Paredes -  "))</f>
+        <v>Paredes -  Ladrillo</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>51</v>
       </c>
@@ -4762,21 +4728,21 @@
         <v>52</v>
       </c>
       <c r="E126" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="3"/>
         <v>tipo</v>
       </c>
       <c r="G126">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H126" t="str">
-        <f t="shared" si="10"/>
-        <v>Paredes -  Madera</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H126:H133" si="11">PROPER(SUBSTITUTE(E126,"par_","Paredes -  "))</f>
+        <v>Paredes -  Bahareque_Norevo</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>51</v>
       </c>
@@ -4787,21 +4753,21 @@
         <v>52</v>
       </c>
       <c r="E127" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="3"/>
         <v>tipo</v>
       </c>
       <c r="G127">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H127" t="str">
-        <f t="shared" si="10"/>
-        <v>Paredes -  No</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>Paredes -  Bahareque_Revo</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>51</v>
       </c>
@@ -4812,21 +4778,21 @@
         <v>52</v>
       </c>
       <c r="E128" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="3"/>
         <v>tipo</v>
       </c>
       <c r="G128">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H128" t="str">
-        <f t="shared" si="10"/>
-        <v>Paredes -  Prefabricado</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>Paredes -  Guadua</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>51</v>
       </c>
@@ -4837,117 +4803,121 @@
         <v>52</v>
       </c>
       <c r="E129" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="3"/>
         <v>tipo</v>
       </c>
       <c r="G129">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H129" t="str">
-        <f t="shared" si="10"/>
-        <v>Paredes -  Tapia</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>Paredes -  Latas_Desh</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C130" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D130" t="s">
         <v>52</v>
       </c>
       <c r="E130" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="3"/>
         <v>tipo</v>
       </c>
       <c r="G130">
-        <v>1</v>
-      </c>
-      <c r="H130" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" si="11"/>
+        <v>Paredes -  Madera</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C131" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D131" t="s">
         <v>52</v>
       </c>
       <c r="E131" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" ref="F131:F156" si="11">D131</f>
+        <f t="shared" si="3"/>
         <v>tipo</v>
       </c>
       <c r="G131">
-        <v>2</v>
-      </c>
-      <c r="H131" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" si="11"/>
+        <v>Paredes -  No</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C132" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D132" t="s">
         <v>52</v>
       </c>
       <c r="E132" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F132" t="str">
+        <f t="shared" si="3"/>
+        <v>tipo</v>
+      </c>
+      <c r="G132">
+        <v>8</v>
+      </c>
+      <c r="H132" t="str">
         <f t="shared" si="11"/>
-        <v>tipo</v>
-      </c>
-      <c r="G132">
-        <v>3</v>
-      </c>
-      <c r="H132" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+        <v>Paredes -  Prefabricado</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C133" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D133" t="s">
         <v>52</v>
       </c>
       <c r="E133" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F133" t="str">
+        <f t="shared" si="3"/>
+        <v>tipo</v>
+      </c>
+      <c r="G133">
+        <v>9</v>
+      </c>
+      <c r="H133" t="str">
         <f t="shared" si="11"/>
-        <v>tipo</v>
-      </c>
-      <c r="G133">
-        <v>4</v>
-      </c>
-      <c r="H133" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+        <v>Paredes -  Tapia</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>62</v>
       </c>
@@ -4958,20 +4928,20 @@
         <v>52</v>
       </c>
       <c r="E134" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F134" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>tipo</v>
       </c>
       <c r="G134">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H134" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>62</v>
       </c>
@@ -4982,20 +4952,20 @@
         <v>52</v>
       </c>
       <c r="E135" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="F135:F160" si="12">D135</f>
         <v>tipo</v>
       </c>
       <c r="G135">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H135" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>62</v>
       </c>
@@ -5006,20 +4976,20 @@
         <v>52</v>
       </c>
       <c r="E136" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F136" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G136">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H136" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>62</v>
       </c>
@@ -5030,20 +5000,20 @@
         <v>52</v>
       </c>
       <c r="E137" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G137">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H137" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>62</v>
       </c>
@@ -5054,120 +5024,116 @@
         <v>52</v>
       </c>
       <c r="E138" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F138" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G138">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H138" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D139" t="s">
         <v>52</v>
       </c>
       <c r="E139" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F139" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G139">
-        <v>10</v>
-      </c>
-      <c r="H139" t="str">
-        <f>PROPER(SUBSTITUTE(E139,"piso_","Piso -  "))</f>
-        <v>Piso -  Alfombra</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="H139" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D140" t="s">
         <v>52</v>
       </c>
       <c r="E140" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G140">
-        <v>11</v>
-      </c>
-      <c r="H140" t="str">
-        <f t="shared" ref="H140:H145" si="12">PROPER(SUBSTITUTE(E140,"piso_","Piso -  "))</f>
-        <v>Piso -  Madera</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="H140" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D141" t="s">
         <v>52</v>
       </c>
       <c r="E141" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G141">
-        <v>12</v>
-      </c>
-      <c r="H141" t="str">
-        <f t="shared" si="12"/>
-        <v>Piso -  Marmol</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H141" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D142" t="s">
         <v>52</v>
       </c>
       <c r="E142" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F142" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G142">
-        <v>13</v>
-      </c>
-      <c r="H142" t="str">
-        <f t="shared" si="12"/>
-        <v>Piso -  Baldosa</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="H142" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>51</v>
       </c>
@@ -5178,21 +5144,21 @@
         <v>52</v>
       </c>
       <c r="E143" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F143" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G143">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H143" t="str">
-        <f t="shared" si="12"/>
-        <v>Piso -  Madera_Burda</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+        <f>PROPER(SUBSTITUTE(E143,"piso_","Piso -  "))</f>
+        <v>Piso -  Alfombra</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>51</v>
       </c>
@@ -5203,21 +5169,21 @@
         <v>52</v>
       </c>
       <c r="E144" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F144" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G144">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H144" t="str">
-        <f t="shared" si="12"/>
-        <v>Piso -  Cemento</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H144:H149" si="13">PROPER(SUBSTITUTE(E144,"piso_","Piso -  "))</f>
+        <v>Piso -  Madera</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>51</v>
       </c>
@@ -5228,117 +5194,121 @@
         <v>52</v>
       </c>
       <c r="E145" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F145" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G145">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H145" t="str">
-        <f t="shared" si="12"/>
-        <v>Piso -  Tierra</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>Piso -  Marmol</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C146" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D146" t="s">
         <v>52</v>
       </c>
       <c r="E146" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F146" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G146">
-        <v>10</v>
-      </c>
-      <c r="H146" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="H146" t="str">
+        <f t="shared" si="13"/>
+        <v>Piso -  Baldosa</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C147" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D147" t="s">
         <v>52</v>
       </c>
       <c r="E147" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F147" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G147">
-        <v>11</v>
-      </c>
-      <c r="H147" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="H147" t="str">
+        <f t="shared" si="13"/>
+        <v>Piso -  Madera_Burda</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C148" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D148" t="s">
         <v>52</v>
       </c>
       <c r="E148" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F148" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G148">
-        <v>12</v>
-      </c>
-      <c r="H148" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="H148" t="str">
+        <f t="shared" si="13"/>
+        <v>Piso -  Cemento</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C149" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D149" t="s">
         <v>52</v>
       </c>
       <c r="E149" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F149" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G149">
-        <v>13</v>
-      </c>
-      <c r="H149" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="H149" t="str">
+        <f t="shared" si="13"/>
+        <v>Piso -  Tierra</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>62</v>
       </c>
@@ -5349,20 +5319,20 @@
         <v>52</v>
       </c>
       <c r="E150" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F150" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G150">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H150" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>62</v>
       </c>
@@ -5373,20 +5343,20 @@
         <v>52</v>
       </c>
       <c r="E151" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F151" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G151">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H151" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>62</v>
       </c>
@@ -5397,68 +5367,68 @@
         <v>52</v>
       </c>
       <c r="E152" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F152" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G152">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H152" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D153" t="s">
         <v>52</v>
       </c>
       <c r="E153" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G153">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H153" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D154" t="s">
         <v>52</v>
       </c>
       <c r="E154" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F154" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G154">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>62</v>
       </c>
@@ -5469,20 +5439,20 @@
         <v>52</v>
       </c>
       <c r="E155" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F155" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
       <c r="G155">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H155" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>62</v>
       </c>
@@ -5493,22 +5463,118 @@
         <v>52</v>
       </c>
       <c r="E156" t="s">
+        <v>85</v>
+      </c>
+      <c r="F156" t="str">
+        <f t="shared" si="12"/>
+        <v>tipo</v>
+      </c>
+      <c r="G156">
+        <v>16</v>
+      </c>
+      <c r="H156" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>51</v>
+      </c>
+      <c r="C157" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157" t="s">
+        <v>52</v>
+      </c>
+      <c r="E157" t="s">
+        <v>86</v>
+      </c>
+      <c r="F157" t="str">
+        <f t="shared" si="12"/>
+        <v>tipo</v>
+      </c>
+      <c r="G157">
+        <v>17</v>
+      </c>
+      <c r="H157" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>51</v>
+      </c>
+      <c r="C158" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" t="s">
+        <v>52</v>
+      </c>
+      <c r="E158" t="s">
+        <v>87</v>
+      </c>
+      <c r="F158" t="str">
+        <f t="shared" si="12"/>
+        <v>tipo</v>
+      </c>
+      <c r="G158">
+        <v>18</v>
+      </c>
+      <c r="H158" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>62</v>
+      </c>
+      <c r="C159" t="s">
+        <v>40</v>
+      </c>
+      <c r="D159" t="s">
+        <v>52</v>
+      </c>
+      <c r="E159" t="s">
+        <v>88</v>
+      </c>
+      <c r="F159" t="str">
+        <f t="shared" si="12"/>
+        <v>tipo</v>
+      </c>
+      <c r="G159">
+        <v>17</v>
+      </c>
+      <c r="H159" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>62</v>
+      </c>
+      <c r="C160" t="s">
+        <v>40</v>
+      </c>
+      <c r="D160" t="s">
+        <v>52</v>
+      </c>
+      <c r="E160" t="s">
         <v>89</v>
       </c>
-      <c r="F156" t="str">
-        <f t="shared" si="11"/>
+      <c r="F160" t="str">
+        <f t="shared" si="12"/>
         <v>tipo</v>
       </c>
-      <c r="G156">
+      <c r="G160">
         <v>18</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H160" t="s">
         <v>303</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H156">
-    <sortCondition ref="D2:D156"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H160">
+    <sortCondition ref="D2:D160"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
